--- a/formatted_FunctionFeedback_output.xlsx
+++ b/formatted_FunctionFeedback_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D355"/>
+  <dimension ref="A1:D358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3457,16 +3457,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -3477,16 +3477,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158">
@@ -3497,16 +3497,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -3517,16 +3517,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
@@ -3537,16 +3537,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3557,16 +3557,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3585,9 +3585,7 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D162" t="n">
-        <v>2</v>
-      </c>
+      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3597,16 +3595,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164">
@@ -3617,16 +3615,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165">
@@ -3637,16 +3635,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -3657,16 +3655,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
@@ -3677,16 +3675,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
@@ -3697,15 +3695,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3715,52 +3715,50 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>9</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3770,250 +3768,252 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4022,18 +4022,18 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4042,18 +4042,18 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4062,18 +4062,18 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4081,65 +4081,67 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4149,7 +4151,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4158,7 +4160,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4169,7 +4171,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4177,9 +4179,7 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D192" t="n">
-        <v>1</v>
-      </c>
+      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4197,7 +4197,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4207,7 +4209,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4215,7 +4217,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4225,16 +4229,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4245,17 +4249,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>37</v>
-      </c>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4265,17 +4267,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>10</v>
-      </c>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4314,7 +4314,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4353,7 +4353,9 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4363,16 +4365,16 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -4383,15 +4385,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4401,17 +4405,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>0</v>
-      </c>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4421,7 +4423,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4429,7 +4431,9 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4439,7 +4443,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4457,7 +4461,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4465,7 +4469,9 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4475,7 +4481,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4488,17 +4494,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
@@ -4506,42 +4512,38 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>1</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>3</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4551,7 +4553,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4559,9 +4561,7 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D212" t="n">
-        <v>8</v>
-      </c>
+      <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4579,7 +4579,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4589,7 +4591,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4598,7 +4600,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -4609,7 +4611,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4617,7 +4619,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4627,12 +4631,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
@@ -4645,15 +4649,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4663,17 +4669,15 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>3</v>
-      </c>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4683,7 +4687,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4691,9 +4695,7 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D219" t="n">
-        <v>7</v>
-      </c>
+      <c r="D219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4703,7 +4705,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4721,7 +4723,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4730,7 +4732,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -4741,7 +4743,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4749,7 +4751,9 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4759,12 +4763,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
@@ -4777,15 +4781,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4795,12 +4801,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
@@ -4813,7 +4819,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4831,7 +4837,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4849,7 +4855,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4867,7 +4873,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4880,62 +4886,56 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>33</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>93</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>1</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4953,7 +4953,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4963,7 +4965,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4971,7 +4973,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr"/>
+      <c r="D234" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -4981,7 +4985,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5001,7 +5005,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5019,12 +5023,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
@@ -5037,16 +5041,16 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -5057,17 +5061,15 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>1</v>
-      </c>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5077,7 +5079,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5085,9 +5087,7 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D240" t="n">
-        <v>2</v>
-      </c>
+      <c r="D240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5145,7 +5145,9 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr"/>
+      <c r="D243" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5155,15 +5157,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5173,16 +5177,16 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -5193,17 +5197,15 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D246" t="n">
-        <v>2</v>
-      </c>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5213,7 +5215,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5231,7 +5233,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5239,7 +5241,9 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
+      <c r="D248" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5249,7 +5253,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5257,7 +5261,9 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr"/>
+      <c r="D249" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5267,7 +5273,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5280,62 +5286,56 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D251" t="n">
-        <v>4</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>17</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>12</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5413,7 +5413,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr"/>
+      <c r="D257" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -5423,16 +5425,16 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259">
@@ -5443,15 +5445,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr"/>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -5461,17 +5465,15 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>4</v>
-      </c>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -5481,7 +5483,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5490,7 +5492,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
@@ -5501,7 +5503,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5509,9 +5511,7 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D262" t="n">
-        <v>6</v>
-      </c>
+      <c r="D262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5549,7 +5549,9 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr"/>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -5559,15 +5561,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr"/>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -5577,16 +5581,16 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -5597,17 +5601,15 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>3</v>
-      </c>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -5617,7 +5619,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -5625,9 +5627,7 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D268" t="n">
-        <v>1</v>
-      </c>
+      <c r="D268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5665,7 +5665,9 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr"/>
+      <c r="D270" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -5675,7 +5677,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5683,67 +5685,65 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr"/>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D273" t="n">
-        <v>1</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D274" t="n">
-        <v>1</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5761,7 +5761,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr"/>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -5771,7 +5773,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5779,7 +5781,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr"/>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -5789,7 +5793,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5797,7 +5801,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr"/>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -5807,7 +5813,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5825,17 +5831,15 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D279" t="n">
-        <v>2</v>
-      </c>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -5845,17 +5849,15 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D280" t="n">
-        <v>27</v>
-      </c>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -5865,12 +5867,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D281" t="inlineStr"/>
@@ -5883,7 +5885,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5891,7 +5893,9 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr"/>
+      <c r="D282" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -5901,7 +5905,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5909,7 +5913,9 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr"/>
+      <c r="D283" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -5919,7 +5925,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5937,7 +5943,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5955,17 +5961,15 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D286" t="n">
-        <v>39</v>
-      </c>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -5975,17 +5979,15 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>57</v>
-      </c>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -5995,12 +5997,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
@@ -6013,7 +6015,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6022,7 +6024,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="290">
@@ -6033,7 +6035,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6041,7 +6043,9 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr"/>
+      <c r="D290" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6051,7 +6055,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6059,9 +6063,7 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D291" t="n">
-        <v>3</v>
-      </c>
+      <c r="D291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6071,7 +6073,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6079,22 +6081,24 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr"/>
+      <c r="D292" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D293" t="inlineStr"/>
@@ -6102,42 +6106,40 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D295" t="n">
-        <v>1</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6147,7 +6149,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6155,9 +6157,7 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D296" t="n">
-        <v>2</v>
-      </c>
+      <c r="D296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6175,7 +6175,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr"/>
+      <c r="D297" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6185,7 +6187,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6194,7 +6196,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -6205,7 +6207,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6213,7 +6215,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr"/>
+      <c r="D299" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6223,12 +6227,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
@@ -6241,16 +6245,16 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302">
@@ -6261,17 +6265,15 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D302" t="n">
-        <v>7</v>
-      </c>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -6281,7 +6283,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -6289,9 +6291,7 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D303" t="n">
-        <v>2</v>
-      </c>
+      <c r="D303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -6309,7 +6309,9 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr"/>
+      <c r="D304" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -6319,7 +6321,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6328,7 +6330,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306">
@@ -6339,7 +6341,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6347,7 +6349,9 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D306" t="inlineStr"/>
+      <c r="D306" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -6357,12 +6361,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -6375,15 +6379,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr"/>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -6393,12 +6399,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
+          <t>2nd Draft</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
@@ -6411,7 +6417,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6429,7 +6435,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6447,7 +6453,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -6465,7 +6471,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -6478,17 +6484,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D314" t="inlineStr"/>
@@ -6496,17 +6502,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D315" t="inlineStr"/>
@@ -6514,22 +6520,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D316" t="n">
-        <v>5</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -6539,7 +6543,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6557,7 +6561,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -6565,9 +6569,7 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D318" t="n">
-        <v>7</v>
-      </c>
+      <c r="D318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -6577,7 +6579,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -6586,7 +6588,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320">
@@ -6597,7 +6599,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6615,15 +6617,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr"/>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -6633,15 +6637,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -6651,17 +6657,15 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D323" t="n">
-        <v>3</v>
-      </c>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -6671,7 +6675,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -6679,9 +6683,7 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D324" t="n">
-        <v>6</v>
-      </c>
+      <c r="D324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -6691,7 +6693,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6699,9 +6701,7 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D325" t="n">
-        <v>4</v>
-      </c>
+      <c r="D325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6719,7 +6719,9 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr"/>
+      <c r="D326" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -6729,7 +6731,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6737,7 +6739,9 @@
           <t>2nd Draft</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr"/>
+      <c r="D327" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -6747,15 +6751,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr"/>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -6765,17 +6771,15 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D329" t="n">
-        <v>2</v>
-      </c>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -6785,17 +6789,15 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D330" t="n">
-        <v>8</v>
-      </c>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -6805,7 +6807,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -6813,9 +6815,7 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>6</v>
-      </c>
+      <c r="D331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6853,7 +6853,9 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr"/>
+      <c r="D333" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -6863,7 +6865,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6871,67 +6873,65 @@
           <t>3rd Draft</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr"/>
+      <c r="D334" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>1st Draft</t>
+          <t>3rd Draft</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D336" t="n">
-        <v>67</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>1st Draft</t>
-        </is>
-      </c>
-      <c r="D337" t="n">
-        <v>27</v>
-      </c>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -6950,7 +6950,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6969,7 +6969,9 @@
           <t>1st Draft</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr"/>
+      <c r="D339" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -6979,7 +6981,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6988,7 +6990,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="341">
@@ -6999,7 +7001,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7008,7 +7010,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342">
@@ -7019,17 +7021,15 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
-        </is>
-      </c>
-      <c r="D342" t="n">
-        <v>45</v>
-      </c>
+          <t>1st Draft</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7039,16 +7039,16 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344">
@@ -7059,16 +7059,16 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2nd Draft</t>
+          <t>1st Draft</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="346">
@@ -7099,7 +7099,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -7108,7 +7108,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="347">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggestions </t>
+          <t xml:space="preserve">Statements </t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349">
@@ -7159,15 +7159,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deletions </t>
+          <t>Underlining</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr"/>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -7177,15 +7179,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Reformulations</t>
+          <t xml:space="preserve">Questions </t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr"/>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -7195,15 +7199,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directives </t>
+          <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr"/>
+          <t>2nd Draft</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -7213,7 +7219,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statements </t>
+          <t xml:space="preserve">Deletions </t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7231,7 +7237,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Underlining</t>
+          <t>Reformulations</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -7249,7 +7255,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t xml:space="preserve">Questions </t>
+          <t xml:space="preserve">Directives </t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -7267,15 +7273,69 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
+          <t xml:space="preserve">Statements </t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>S17</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Underlining</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>S17</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Questions </t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>S17</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
           <t xml:space="preserve">Suggestions </t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>3rd Draft</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr"/>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>3rd Draft</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
